--- a/ems/document/生产调度系统5月份需要开发需求.xlsx
+++ b/ems/document/生产调度系统5月份需要开发需求.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\workspace\leon\ems\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawujun/git/leon/ems/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,12 +198,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -237,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,9 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -306,12 +314,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -584,26 +611,26 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="63.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="11.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -617,7 +644,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -630,12 +657,12 @@
       <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -648,28 +675,28 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -682,10 +709,10 @@
       <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -698,10 +725,10 @@
       <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -712,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="33" customHeight="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -728,24 +755,24 @@
       <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" s="20" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A10" s="15">
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1">
+      <c r="D10" s="17"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -758,10 +785,10 @@
       <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -774,12 +801,12 @@
       <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="62.25" customHeight="1">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -790,12 +817,12 @@
         <v>30</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -808,10 +835,10 @@
       <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -822,10 +849,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -836,10 +863,10 @@
         <v>25</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -852,11 +879,11 @@
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="E18" s="22"/>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="21"/>
       <c r="F18" s="6"/>
     </row>
   </sheetData>

--- a/ems/document/生产调度系统5月份需要开发需求.xlsx
+++ b/ems/document/生产调度系统5月份需要开发需求.xlsx
@@ -198,7 +198,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,25 +320,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,12 +632,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -651,7 +660,7 @@
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -680,21 +689,21 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24">
+    <row r="5" spans="1:6" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -749,7 +758,7 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="12" t="s">

--- a/ems/document/生产调度系统5月份需要开发需求.xlsx
+++ b/ems/document/生产调度系统5月份需要开发需求.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawujun/git/leon/ems/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\workspace\leon\ems\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>生产调度系统需求表（2016年5月份）</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>任务查询管理中增加任务进展管理，就和聊天记录一样每次发送一条上去，有什么进展就写上去，而且只能增加不能删除。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提交人，确认人等等信息，等用户整合完成后座这个</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,14 +337,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,27 +623,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
-    <col min="5" max="5" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="45.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="11.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -653,14 +657,14 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -671,14 +675,14 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -689,14 +693,14 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="27" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="23">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -705,7 +709,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -718,10 +722,12 @@
       <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -737,7 +743,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -751,14 +757,14 @@
       <c r="E8" s="21"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -767,7 +773,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" s="19" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="45.75" customHeight="1">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -781,7 +787,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -797,7 +803,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -815,7 +821,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="62.25" customHeight="1">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -831,7 +837,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -847,7 +853,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -861,7 +867,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -875,7 +881,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -891,7 +897,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="E18" s="21"/>
       <c r="F18" s="6"/>
     </row>

--- a/ems/document/生产调度系统5月份需要开发需求.xlsx
+++ b/ems/document/生产调度系统5月份需要开发需求.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>生产调度系统需求表（2016年5月份）</t>
   </si>
@@ -50,98 +50,105 @@
     <t>PC端应用</t>
   </si>
   <si>
+    <t>例如夏季批量停电</t>
+  </si>
+  <si>
+    <t>所有任务下发后取消由部门权限账户进行取消，不能由项目账户进行取消（权限分配问题）；可由项目组申请取消；</t>
+  </si>
+  <si>
+    <t>确认和退回分开，可以由机房确认，退回由上一级部门操作</t>
+  </si>
+  <si>
+    <t>故障任务可通过手动提交完成，但应显示作业单位为机房操作不再显示前端作业组，因为作业组未进行操作而完成的任务；</t>
+  </si>
+  <si>
+    <t>停电自动恢复</t>
+  </si>
+  <si>
+    <t>例如批量树枝修剪、球机清洗</t>
+  </si>
+  <si>
+    <t>系统中的一些删除功能权限放到上一级部门进行操作，机房人员不能对点位或派出所进行删除操作</t>
+  </si>
+  <si>
+    <t>目前在“客户信息”里可以任意删除点位及派出所</t>
+  </si>
+  <si>
+    <t>巡检任务可选择显示点位数为全部（现在仅仅50个点位一页，希望以后出故障批量上报时也可以选择一页显示全部点位。 注：现在使用1页50个点位，如第一页选择1个跳到第二页时第一页的点位默认不被选中）。</t>
+  </si>
+  <si>
+    <t>如30个点位停电后来电恢复，可以输入一个恢复时间后批量提交</t>
+  </si>
+  <si>
+    <t>手机端应用</t>
+  </si>
+  <si>
+    <t>APP生产系统使用中没有任务刷新功能，如登录进入后任务列表中点击获取更多无效果，只有重新登录才能看到新的任务。</t>
+  </si>
+  <si>
+    <t>之前点击“获取更多”可以显示新任务，现在没有这个功能了</t>
+  </si>
+  <si>
+    <t>手机客户端任务筛选功能，加入今天27号，我只想看到27号所有的任务。</t>
+  </si>
+  <si>
+    <t>任务类型里面只有新建任务、处理中任务、已提交任务缺少完成任务查询</t>
+  </si>
+  <si>
+    <t>手机端在提交任务前增加“选择人员”，如这个任务是哪几个人一起完成的</t>
+  </si>
+  <si>
+    <t>便于后端统计每个人的实际工作量</t>
+  </si>
+  <si>
+    <t>机房里有不同的设备，如交换机坏了还没修好但是服务器又坏了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于电力、光纤故障我们是外包给其他施工队的，我们的前端人员到达故障点位时发现是电力或光纤故障时直接通知外包的施工队后提交任务了，后续外包施工队回复给我们的信息无法录入到该条任务里面，建议在任务查询管理中增加机房人员对每条任务的编辑功能，手工加上该任务的后续信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前系统采用的是机房点击确认的时间作为任务完成时间，与实际完成时间有差异，可以改为在点击确认时输入实际的完成时间，但需要增加批量输入批量提交</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以根据按片区进行管理，有这个片区的权限，那就只能查看这个片区的点位，和仓库权限一样</t>
+  </si>
+  <si>
+    <t>批量发送维修任务，在发送的时候，可以填写备注信息，作业单位要显示，而且一次批量的任务的点位必须是同个派出所，因为一次任务发送只能选择一个作业单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个规则：如果故障原因是停电，就弹出时间框进行设置实际的完成时间，让机房的人手动修改。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务查询管理中增加任务进展管理，就和聊天记录一样每次发送一条上去，有什么进展就写上去，而且只能增加不能删除。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提交人，确认人等等信息，等用户整合完成后座这个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>先建立任务类型维护，然后再添加任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>维护任务需增加批量下发任务，可同时对批量任务进行描述与时间选择（可限单个派出所）；</t>
-  </si>
-  <si>
-    <t>例如夏季批量停电</t>
-  </si>
-  <si>
-    <t>所有任务下发后取消由部门权限账户进行取消，不能由项目账户进行取消（权限分配问题）；可由项目组申请取消；</t>
-  </si>
-  <si>
-    <t>确认和退回分开，可以由机房确认，退回由上一级部门操作</t>
-  </si>
-  <si>
-    <t>故障任务可通过手动提交完成，但应显示作业单位为机房操作不再显示前端作业组，因为作业组未进行操作而完成的任务；</t>
-  </si>
-  <si>
-    <t>停电自动恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巡检任务可以批量下发任务，在批量下发时可以备注任务类型，增加可以编辑批量巡检任务类型；</t>
-  </si>
-  <si>
-    <t>例如批量树枝修剪、球机清洗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不同的浏览器进入系统碰到的问题不一样，如自动离线时间、点击任务的下拉菜单不会消失等，建议测试一下各种浏览器，然后统一使用经测试后最优的浏览器。</t>
-  </si>
-  <si>
-    <t>系统中的一些删除功能权限放到上一级部门进行操作，机房人员不能对点位或派出所进行删除操作</t>
-  </si>
-  <si>
-    <t>目前在“客户信息”里可以任意删除点位及派出所</t>
-  </si>
-  <si>
-    <t>巡检任务可选择显示点位数为全部（现在仅仅50个点位一页，希望以后出故障批量上报时也可以选择一页显示全部点位。 注：现在使用1页50个点位，如第一页选择1个跳到第二页时第一页的点位默认不被选中）。</t>
-  </si>
-  <si>
-    <t>如30个点位停电后来电恢复，可以输入一个恢复时间后批量提交</t>
-  </si>
-  <si>
-    <t>手机端应用</t>
-  </si>
-  <si>
-    <t>APP生产系统使用中没有任务刷新功能，如登录进入后任务列表中点击获取更多无效果，只有重新登录才能看到新的任务。</t>
-  </si>
-  <si>
-    <t>之前点击“获取更多”可以显示新任务，现在没有这个功能了</t>
-  </si>
-  <si>
-    <t>手机客户端任务筛选功能，加入今天27号，我只想看到27号所有的任务。</t>
-  </si>
-  <si>
-    <t>任务类型里面只有新建任务、处理中任务、已提交任务缺少完成任务查询</t>
-  </si>
-  <si>
-    <t>手机端在提交任务前增加“选择人员”，如这个任务是哪几个人一起完成的</t>
-  </si>
-  <si>
-    <t>便于后端统计每个人的实际工作量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>允许点位重复派单相同或不同类型的任务，比如同个点位同时派发2个维护任务和1个巡检任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房里有不同的设备，如交换机坏了还没修好但是服务器又坏了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于电力、光纤故障我们是外包给其他施工队的，我们的前端人员到达故障点位时发现是电力或光纤故障时直接通知外包的施工队后提交任务了，后续外包施工队回复给我们的信息无法录入到该条任务里面，建议在任务查询管理中增加机房人员对每条任务的编辑功能，手工加上该任务的后续信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前系统采用的是机房点击确认的时间作为任务完成时间，与实际完成时间有差异，可以改为在点击确认时输入实际的完成时间，但需要增加批量输入批量提交</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以根据按片区进行管理，有这个片区的权限，那就只能查看这个片区的点位，和仓库权限一样</t>
-  </si>
-  <si>
-    <t>批量发送维修任务，在发送的时候，可以填写备注信息，作业单位要显示，而且一次批量的任务的点位必须是同个派出所，因为一次任务发送只能选择一个作业单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加一个规则：如果故障原因是停电，就弹出时间框进行设置实际的完成时间，让机房的人手动修改。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务查询管理中增加任务进展管理，就和聊天记录一样每次发送一条上去，有什么进展就写上去，而且只能增加不能删除。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加提交人，确认人等等信息，等用户整合完成后座这个</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -671,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -683,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -701,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
@@ -717,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>36</v>
+      <c r="E6" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -734,13 +741,15 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
+      <c r="C7" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1">
@@ -750,8 +759,8 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
+      <c r="C8" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="21"/>
@@ -765,10 +774,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="6"/>
@@ -781,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="22"/>
@@ -794,11 +803,11 @@
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
+      <c r="C11" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="6"/>
@@ -811,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -829,11 +838,11 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -842,13 +851,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="6"/>
@@ -858,10 +867,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="21"/>
@@ -872,10 +881,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="21"/>
@@ -886,13 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="6"/>
